--- a/CFA_API/Result/Excel/passedTestResult.xlsx
+++ b/CFA_API/Result/Excel/passedTestResult.xlsx
@@ -6,9 +6,6 @@
     <workbookView activeTab="29"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-12-10 19-46-07" r:id="rId47" sheetId="795"/>
-    <sheet name="2020-12-11 15-33-47" r:id="rId48" sheetId="796"/>
-    <sheet name="2020-12-11 16-59-46" r:id="rId49" sheetId="797"/>
     <sheet name="2020-12-14 16-04-45" r:id="rId50" sheetId="798"/>
     <sheet name="2020-12-14 18-08-57" r:id="rId51" sheetId="799"/>
     <sheet name="2020-12-14 18-48-47" r:id="rId52" sheetId="800"/>
@@ -36,12 +33,15 @@
     <sheet name="2020-12-21 16-12-09" r:id="rId44" sheetId="822"/>
     <sheet name="2020-12-21 20-39-05" r:id="rId45" sheetId="823"/>
     <sheet name="2020-12-22 12-08-20" r:id="rId46" sheetId="824"/>
+    <sheet name="2021-03-15 19-12-31" r:id="rId47" sheetId="825"/>
+    <sheet name="2021-03-15 19-14-00" r:id="rId48" sheetId="826"/>
+    <sheet name="2021-03-15 20-04-48" r:id="rId49" sheetId="827"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19032" uniqueCount="2841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19044" uniqueCount="2841">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -8571,7 +8571,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3297">
+  <fonts count="3309">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -25059,13 +25059,103 @@
       <sz val="11.0"/>
       <color indexed="8"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
   </fonts>
-  <fills count="1650">
+  <fills count="1656">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="24"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
@@ -33320,7 +33410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3297">
+  <cellXfs count="3309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
@@ -36618,89 +36708,20 @@
     <xf numFmtId="0" fontId="3294" fillId="1649" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="3295" fillId="1649" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="3296" fillId="1649" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="3297" fillId="1651" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="3298" fillId="1651" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="3299" fillId="1651" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="3300" fillId="1651" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="3301" fillId="1653" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="3302" fillId="1653" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="3303" fillId="1653" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="3304" fillId="1653" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="3305" fillId="1655" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="3306" fillId="1655" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="3307" fillId="1655" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="3308" fillId="1655" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
-</file>
-
-<file path=xl/worksheets/sheet795.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="3177">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="3178">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="3179">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="3180">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet796.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="3181">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="3182">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="3183">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="3184">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet797.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="3185">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="3186">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="3187">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="3188">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
 
 <file path=xl/worksheets/sheet798.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37430,4 +37451,85 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet825.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="3297">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="3298">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="3299">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="3300">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet826.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="3301">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="3302">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="3303">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="3304">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet827.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="3305">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="3306">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="3307">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="3308">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/CFA_API/Result/Excel/passedTestResult.xlsx
+++ b/CFA_API/Result/Excel/passedTestResult.xlsx
@@ -6,7 +6,6 @@
     <workbookView activeTab="29"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-12-14 16-04-45" r:id="rId50" sheetId="798"/>
     <sheet name="2020-12-14 18-08-57" r:id="rId51" sheetId="799"/>
     <sheet name="2020-12-14 18-48-47" r:id="rId52" sheetId="800"/>
     <sheet name="2020-12-14 19-01-10" r:id="rId53" sheetId="801"/>
@@ -36,12 +35,13 @@
     <sheet name="2021-03-15 19-12-31" r:id="rId47" sheetId="825"/>
     <sheet name="2021-03-15 19-14-00" r:id="rId48" sheetId="826"/>
     <sheet name="2021-03-15 20-04-48" r:id="rId49" sheetId="827"/>
+    <sheet name="2021-03-16 01-43-42" r:id="rId50" sheetId="828"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19044" uniqueCount="2841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19048" uniqueCount="2841">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -8571,7 +8571,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3309">
+  <fonts count="3313">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -25119,13 +25119,43 @@
       <sz val="11.0"/>
       <color indexed="8"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
   </fonts>
-  <fills count="1656">
+  <fills count="1658">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="24"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
@@ -33410,7 +33440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3309">
+  <cellXfs count="3313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
@@ -36720,35 +36750,12 @@
     <xf numFmtId="0" fontId="3306" fillId="1655" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="3307" fillId="1655" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="3308" fillId="1655" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="3309" fillId="1657" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="3310" fillId="1657" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="3311" fillId="1657" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="3312" fillId="1657" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
-</file>
-
-<file path=xl/worksheets/sheet798.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="3189">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="3190">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="3191">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="3192">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
 
 <file path=xl/worksheets/sheet799.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37532,4 +37539,31 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet828.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="3309">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="3310">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="3311">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="3312">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>